--- a/testData/Project_Login_Excel.xlsx
+++ b/testData/Project_Login_Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2318872_cognizant_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2318872\eclipse-workspace\hackathonProjectCucumber\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{27B47C3F-1381-45AC-9162-374A61B90300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F30E3BF5-FA38-488E-808A-B9E95372CF7D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46828B5-2C61-459D-96DC-AE18EF3A6448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DB535164-CC11-4A72-8889-884BDAB0872B}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Invalid Email Id</t>
   </si>
   <si>
-    <t>/@gmail.com</t>
-  </si>
-  <si>
     <t>3433@gmail.com</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>youtube@com</t>
+  </si>
+  <si>
+    <t>/@googlemail.com</t>
   </si>
 </sst>
 </file>
@@ -142,10 +142,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,7 +444,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -463,62 +459,61 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{E516D696-C79A-4A3D-A85F-7706A685A31A}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{7DDE1E36-A3F5-43C6-AD08-1147CCC56BB4}"/>
-    <hyperlink ref="A5" r:id="rId3" display="46654453@gmail.com" xr:uid="{0CB3DCEA-B5AB-4A90-8266-6CCF8B6DC512}"/>
-    <hyperlink ref="A6" r:id="rId4" display="googleAcccount@gmil.com" xr:uid="{F553D987-7321-415D-B642-7AA27CCE6B6B}"/>
-    <hyperlink ref="A4" r:id="rId5" xr:uid="{74E9812F-0483-4DA1-B9D0-04BEE0A764D0}"/>
-    <hyperlink ref="A9" r:id="rId6" xr:uid="{7AD9AC55-A281-4AC3-A107-9C63423546BE}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{7DDE1E36-A3F5-43C6-AD08-1147CCC56BB4}"/>
+    <hyperlink ref="A5" r:id="rId2" display="46654453@gmail.com" xr:uid="{0CB3DCEA-B5AB-4A90-8266-6CCF8B6DC512}"/>
+    <hyperlink ref="A6" r:id="rId3" display="googleAcccount@gmil.com" xr:uid="{F553D987-7321-415D-B642-7AA27CCE6B6B}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{74E9812F-0483-4DA1-B9D0-04BEE0A764D0}"/>
+    <hyperlink ref="A9" r:id="rId5" xr:uid="{7AD9AC55-A281-4AC3-A107-9C63423546BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
